--- a/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_DiaG1.xlsx
+++ b/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_DiaG1.xlsx
@@ -21,14 +21,14 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
-    <pivotCache cacheId="38" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="37">
   <si>
     <t>Container</t>
   </si>
@@ -138,22 +138,7 @@
     <t>Sum of Loaded2</t>
   </si>
   <si>
-    <t>PALET-004(332-1984746-PO)</t>
-  </si>
-  <si>
-    <t>PALET-004(312-1984746-PO)</t>
-  </si>
-  <si>
     <t>segundos</t>
-  </si>
-  <si>
-    <t>PALET-006(332-1984746-PO)</t>
-  </si>
-  <si>
-    <t>PALET-003(331-1984746-PO)</t>
-  </si>
-  <si>
-    <t>PALET-006(312-1984746-PO)</t>
   </si>
 </sst>
 </file>
@@ -774,22 +759,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.710222106478" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="36">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.751324305558" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="35">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A4:H40" sheet="CBC"/>
+    <worksheetSource ref="A4:H39" sheet="CBC"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Container" numFmtId="0">
-      <sharedItems count="9">
+      <sharedItems count="6">
         <s v="PALET-001(311-1984746-PO)"/>
         <s v="PALET-002(311-1984746-PO)"/>
-        <s v="PALET-003(331-1984746-PO)"/>
-        <s v="PALET-004(312-1984746-PO)"/>
-        <s v="PALET-004(332-1984746-PO)"/>
+        <s v="PALET-003(312-1984746-PO)"/>
+        <s v="PALET-004(331-1984746-PO)"/>
         <s v="PALET-005(332-1984746-PO)"/>
         <s v="PALET-006(352-1984746-PO)"/>
-        <s v="PALET-006(312-1984746-PO)"/>
-        <s v="PALET-006(332-1984746-PO)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded" numFmtId="0">
@@ -799,41 +781,32 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
     <cacheField name="Area Effi." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="96"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="14" maxValue="82"/>
     </cacheField>
     <cacheField name="SKU" numFmtId="0">
       <sharedItems count="15">
         <s v="21124-CHULETA DE AGUJA 600 GR. BAND."/>
         <s v="21070-CHULETA DE LOMO 600 GR. BAND."/>
-        <s v="20973-COSTILLA SEMICARNUDA TIRA VACI"/>
-        <s v="20831-FILETE DE PANCETA 560 GR. BAND"/>
-        <s v="20835-SOLOMILLO VACIO"/>
-        <s v="21267-CINTA DE LOMO 400 GR. BAND."/>
-        <s v="21112-ESC. JAMON SIEMPRE TIERNOS 400"/>
         <s v="21100-COSTILLA TROCEADA 560 GR. BAND"/>
         <s v="21101-LIBRITOS DE LOMO 400 GR. BAND."/>
+        <s v="20831-FILETE DE PANCETA 560 GR. BAND"/>
+        <s v="21112-ESC. JAMON SIEMPRE TIERNOS 400"/>
+        <s v="21267-CINTA DE LOMO 400 GR. BAND."/>
+        <s v="20849-FILETE DE AGUJA 400 GR. BAND."/>
+        <s v="20973-COSTILLA SEMICARNUDA TIRA VACI"/>
+        <s v="20835-SOLOMILLO VACIO"/>
         <s v="20871-AGUJA S/H VACIO"/>
+        <s v="20850-SOLOMILLO 2 UNIDADES VACIO"/>
         <s v="20836-CINTA LOMO TROZO VACIO"/>
+        <s v="21277-LOMO SIEMPRE TIERNO 300 GR. BA"/>
         <s v="20842-ESCALOPIN LOMO ADOB. 300 GR. B"/>
-        <s v="21277-LOMO SIEMPRE TIERNO 300 GR. BA"/>
-        <s v="20849-FILETE DE AGUJA 400 GR. BAND."/>
-        <s v="20850-SOLOMILLO 2 UNIDADES VACIO"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded2" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
     </cacheField>
     <cacheField name="Column #" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="8">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
     <cacheField name="Customer Product Code" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="999999" maxValue="999999"/>
@@ -1233,7 +1206,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="35">
   <r>
     <x v="0"/>
     <n v="100"/>
@@ -1241,7 +1214,7 @@
     <n v="36"/>
     <x v="0"/>
     <n v="9"/>
-    <x v="0"/>
+    <n v="1"/>
     <n v="999999"/>
   </r>
   <r>
@@ -1251,7 +1224,7 @@
     <n v="36"/>
     <x v="0"/>
     <n v="9"/>
-    <x v="1"/>
+    <n v="2"/>
     <n v="999999"/>
   </r>
   <r>
@@ -1261,7 +1234,7 @@
     <n v="36"/>
     <x v="0"/>
     <n v="9"/>
-    <x v="2"/>
+    <n v="3"/>
     <n v="999999"/>
   </r>
   <r>
@@ -1271,7 +1244,7 @@
     <n v="36"/>
     <x v="0"/>
     <n v="9"/>
-    <x v="3"/>
+    <n v="4"/>
     <n v="999999"/>
   </r>
   <r>
@@ -1279,9 +1252,9 @@
     <n v="100"/>
     <n v="100"/>
     <n v="49"/>
-    <x v="0"/>
-    <n v="3"/>
-    <x v="0"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="1"/>
     <n v="999999"/>
   </r>
   <r>
@@ -1291,7 +1264,27 @@
     <n v="49"/>
     <x v="1"/>
     <n v="14"/>
+    <n v="2"/>
+    <n v="999999"/>
+  </r>
+  <r>
     <x v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="49"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="49"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="3"/>
     <n v="999999"/>
   </r>
   <r>
@@ -1301,304 +1294,274 @@
     <n v="49"/>
     <x v="1"/>
     <n v="16"/>
+    <n v="4"/>
+    <n v="999999"/>
+  </r>
+  <r>
     <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="1"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="1"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="49"/>
-    <x v="1"/>
-    <n v="16"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
     <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="2"/>
     <n v="100"/>
     <n v="100"/>
-    <n v="14"/>
+    <n v="81"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="999999"/>
+  </r>
+  <r>
     <x v="2"/>
-    <n v="14"/>
-    <x v="3"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="3"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="3"/>
-    <n v="7"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="4"/>
-    <n v="5"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="3"/>
-    <n v="11"/>
-    <x v="1"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="5"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="6"/>
-    <n v="2"/>
     <x v="2"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="5"/>
-    <n v="10"/>
-    <x v="2"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="3"/>
-    <n v="12"/>
-    <x v="3"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="7"/>
-    <n v="12"/>
-    <x v="4"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="3"/>
-    <n v="9"/>
-    <x v="5"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="8"/>
-    <n v="3"/>
-    <x v="5"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
     <x v="4"/>
     <n v="12"/>
+    <n v="4"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
     <x v="6"/>
+    <n v="11"/>
+    <n v="5"/>
     <n v="999999"/>
   </r>
   <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
+    <x v="4"/>
+    <n v="12"/>
+    <n v="6"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="81"/>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="999999"/>
+  </r>
+  <r>
     <x v="3"/>
     <n v="100"/>
     <n v="100"/>
-    <n v="96"/>
-    <x v="3"/>
+    <n v="14"/>
+    <x v="8"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="33"/>
+    <x v="9"/>
+    <n v="12"/>
+    <n v="3"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="33"/>
+    <x v="10"/>
     <n v="2"/>
-    <x v="7"/>
+    <n v="4"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="3"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="96"/>
-    <x v="7"/>
-    <n v="10"/>
-    <x v="7"/>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="33"/>
+    <x v="11"/>
+    <n v="9"/>
+    <n v="5"/>
     <n v="999999"/>
   </r>
   <r>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="33"/>
+    <x v="12"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="33"/>
+    <x v="9"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="999999"/>
+  </r>
+  <r>
     <x v="5"/>
     <n v="100"/>
     <n v="100"/>
+    <n v="82"/>
+    <x v="13"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="82"/>
+    <x v="13"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="82"/>
+    <x v="14"/>
+    <n v="12"/>
+    <n v="3"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="82"/>
+    <x v="14"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="82"/>
+    <x v="14"/>
+    <n v="12"/>
+    <n v="5"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="82"/>
+    <x v="13"/>
     <n v="7"/>
-    <x v="9"/>
-    <n v="2"/>
-    <x v="1"/>
+    <n v="6"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="5"/>
     <n v="100"/>
     <n v="100"/>
+    <n v="82"/>
+    <x v="13"/>
+    <n v="12"/>
     <n v="7"/>
-    <x v="10"/>
-    <n v="5"/>
-    <x v="3"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="6"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="11"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="12"/>
-    <n v="9"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="12"/>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="82"/>
+    <x v="13"/>
     <n v="12"/>
-    <x v="1"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="13"/>
-    <n v="2"/>
-    <x v="2"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="12"/>
-    <n v="10"/>
-    <x v="2"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="11"/>
-    <n v="12"/>
-    <x v="3"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="14"/>
     <n v="8"/>
-    <x v="4"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="12"/>
-    <n v="4"/>
-    <x v="4"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="14"/>
-    <n v="1"/>
-    <x v="5"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="12"/>
-    <n v="8"/>
-    <x v="5"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="12"/>
-    <n v="12"/>
-    <x v="6"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="93"/>
-    <x v="11"/>
-    <n v="12"/>
-    <x v="7"/>
     <n v="999999"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A2:C20" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1732,20 +1695,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="E2:G20" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="9">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="6"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -1758,36 +1718,25 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="15">
+        <item x="4"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="11"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="6"/>
         <item x="13"/>
-        <item x="14"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="12"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-      </items>
-    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
@@ -1808,11 +1757,10 @@
     </i>
     <i>
       <x v="2"/>
-      <x v="7"/>
+      <x/>
     </i>
-    <i>
-      <x v="3"/>
-      <x/>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="9"/>
@@ -1827,26 +1775,24 @@
       <x v="13"/>
     </i>
     <i>
+      <x v="3"/>
+      <x v="7"/>
+    </i>
+    <i>
       <x v="4"/>
       <x v="1"/>
     </i>
-    <i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x v="5"/>
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="6"/>
     </i>
     <i>
-      <x v="6"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
       <x v="3"/>
     </i>
     <i r="1">
@@ -2137,7 +2083,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="E1:G20"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2160,7 +2106,7 @@
         <v>242</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2264,13 +2210,13 @@
         <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -2284,13 +2230,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -2304,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>22</v>
@@ -2324,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>23</v>
@@ -2344,7 +2290,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -2364,7 +2310,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>21</v>
@@ -2384,13 +2330,13 @@
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2407,10 +2353,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G14" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -2427,10 +2373,10 @@
         <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -2444,13 +2390,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G16" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2464,13 +2410,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -3588,10 +3534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:I43"/>
+      <selection activeCell="A40" sqref="A40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3761,10 +3707,10 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3813,13 +3759,13 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>999999</v>
@@ -3839,13 +3785,13 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>999999</v>
@@ -3853,7 +3799,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -3862,13 +3808,13 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -3879,7 +3825,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -3888,13 +3834,13 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3905,7 +3851,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -3914,16 +3860,16 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>999999</v>
@@ -3931,7 +3877,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -3940,13 +3886,13 @@
         <v>100</v>
       </c>
       <c r="D16">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -3957,7 +3903,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -3966,16 +3912,16 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>999999</v>
@@ -3983,7 +3929,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -3992,7 +3938,7 @@
         <v>100</v>
       </c>
       <c r="D18">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -4009,7 +3955,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -4018,16 +3964,16 @@
         <v>100</v>
       </c>
       <c r="D19">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>999999</v>
@@ -4035,7 +3981,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -4044,16 +3990,16 @@
         <v>100</v>
       </c>
       <c r="D20">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>999999</v>
@@ -4061,7 +4007,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -4070,13 +4016,13 @@
         <v>100</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -4087,7 +4033,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -4096,13 +4042,13 @@
         <v>100</v>
       </c>
       <c r="D22">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -4113,7 +4059,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -4122,16 +4068,16 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <v>999999</v>
@@ -4139,7 +4085,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -4148,13 +4094,13 @@
         <v>100</v>
       </c>
       <c r="D24">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>7</v>
@@ -4165,7 +4111,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -4174,10 +4120,10 @@
         <v>100</v>
       </c>
       <c r="D25">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -4191,7 +4137,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -4200,16 +4146,16 @@
         <v>100</v>
       </c>
       <c r="D26">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>999999</v>
@@ -4226,16 +4172,16 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>999999</v>
@@ -4252,13 +4198,13 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -4269,25 +4215,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
         <v>33</v>
       </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <v>93</v>
-      </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>999999</v>
@@ -4295,25 +4241,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
         <v>33</v>
       </c>
-      <c r="B30">
-        <v>100</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>93</v>
-      </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H30">
         <v>999999</v>
@@ -4321,25 +4267,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
         <v>33</v>
       </c>
-      <c r="B31">
-        <v>100</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>93</v>
-      </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>999999</v>
@@ -4347,7 +4293,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>100</v>
@@ -4356,16 +4302,16 @@
         <v>100</v>
       </c>
       <c r="D32">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>999999</v>
@@ -4382,16 +4328,16 @@
         <v>100</v>
       </c>
       <c r="D33">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>999999</v>
@@ -4408,7 +4354,7 @@
         <v>100</v>
       </c>
       <c r="D34">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -4417,7 +4363,7 @@
         <v>12</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>999999</v>
@@ -4425,7 +4371,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>100</v>
@@ -4434,16 +4380,16 @@
         <v>100</v>
       </c>
       <c r="D35">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <v>999999</v>
@@ -4460,13 +4406,13 @@
         <v>100</v>
       </c>
       <c r="D36">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -4477,7 +4423,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>100</v>
@@ -4486,13 +4432,13 @@
         <v>100</v>
       </c>
       <c r="D37">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>6</v>
@@ -4512,16 +4458,16 @@
         <v>100</v>
       </c>
       <c r="D38">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H38">
         <v>999999</v>
@@ -4538,7 +4484,7 @@
         <v>100</v>
       </c>
       <c r="D39">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -4547,35 +4493,9 @@
         <v>12</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40">
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40">
-        <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40">
-        <v>12</v>
-      </c>
-      <c r="G40">
-        <v>8</v>
-      </c>
-      <c r="H40">
         <v>999999</v>
       </c>
     </row>
